--- a/biology/Médecine/Classe_ATC_A09/Classe_ATC_A09.xlsx
+++ b/biology/Médecine/Classe_ATC_A09/Classe_ATC_A09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC A09, dénommée « Digestifs, y compris les enzymes », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QA09[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique A de la classification, intitulé « Système digestif et métabolisme ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC A09, dénommée « Digestifs, y compris les enzymes », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QA09. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique A de la classification, intitulé « Système digestif et métabolisme ».
 </t>
         </is>
       </c>
@@ -513,18 +525,91 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A09AA Enzyme - préparations
-A09AA01 Diastase
+          <t>A09AA Enzyme - préparations</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>A09AA01 Diastase
 A09AA02 Multienzymes (lipase, protéase etc.)
 A09AA03 Pepsine
-A09AA04 Tilactase
-A09AB Acide - préparations
-A09AB01 Acide glutamique
+A09AA04 Tilactase</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A09</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>A09A Digestifs, y compris les enzymes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A09AB Acide - préparations</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>A09AB01 Acide glutamique
 A09AB02 Bétaïne
 A09AB03 Acide chlorhydrique
-A09AB04 Acide citrique
-A09AC Enzyme et acide - préparations en combinaisons
-A09AC01 Pepsineet acides en préparations
+A09AB04 Acide citrique</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A09</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>A09A Digestifs, y compris les enzymes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A09AC Enzyme et acide - préparations en combinaisons</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>A09AC01 Pepsineet acides en préparations
 A09AC02 Multienzymes et acides en préparations</t>
         </is>
       </c>
